--- a/Colecciones/Kaldheim (KHM).xlsx
+++ b/Colecciones/Kaldheim (KHM).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Kaldheim</t>
+          <t>Kaldheim (KHM)</t>
         </is>
       </c>
     </row>

--- a/Colecciones/Kaldheim (KHM).xlsx
+++ b/Colecciones/Kaldheim (KHM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A125"/>
+  <dimension ref="A1:A160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,28 +486,28 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Arctic Treeline</t>
+          <t>Annul</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Armed and Armored</t>
+          <t>Arctic Treeline</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Augury Raven</t>
+          <t>Armed and Armored</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Barkchannel Pathway // Tidechannel Pathway</t>
+          <t>Augury Raven</t>
         </is>
       </c>
     </row>
@@ -521,789 +521,1034 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bearded Axe</t>
+          <t>Barkchannel Pathway // Tidechannel Pathway</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Behold the Multiverse</t>
+          <t>Bearded Axe</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Binding the Old Gods</t>
+          <t>Behold the Multiverse</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Blightstep Pathway // Searstep Pathway</t>
+          <t>"Big-Axe Diplomat"</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Blightstep Pathway // Searstep Pathway</t>
+          <t>Binding the Old Gods</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bretagard Stronghold</t>
+          <t>Blightstep Pathway // Searstep Pathway</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Calamity Bearer</t>
+          <t>Blightstep Pathway // Searstep Pathway</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Canopy Tactician</t>
+          <t>Bloodline Pretender</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cleaving Reaper</t>
+          <t>Bretagard Stronghold</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cosmos Charger</t>
+          <t>Broken Wings</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Darkbore Pathway // Slitherbore Pathway</t>
+          <t>Calamity Bearer</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Darkbore Pathway // Slitherbore Pathway</t>
+          <t>Canopy Tactician</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Doomskar Oracle</t>
+          <t>Cleaving Reaper</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Elderfang Ritualist</t>
+          <t>Cosmos Charger</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Elven Ambush</t>
+          <t>Darkbore Pathway // Slitherbore Pathway</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Elvish Warmaster</t>
+          <t>Darkbore Pathway // Slitherbore Pathway</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Elvish Warmaster</t>
+          <t>Doomskar Oracle</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Esika, God of the Tree // The Prismatic Bridge</t>
+          <t>"Dragon Dad uwu…"</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fire Giant's Fury</t>
+          <t>Draugr Necromancer</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Firja, Judge of Valor</t>
+          <t>"Draugr Scourge Lord"</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Forging the Tyrite Sword</t>
+          <t>Elderfang Ritualist</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Frost Bite</t>
+          <t>Elven Ambush</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Frost Bite</t>
+          <t>Elvish Warmaster</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>"Gatorade™ Ice Punch"</t>
+          <t>Elvish Warmaster</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Giant's Amulet</t>
+          <t>Eradicator Valkyrie</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Giant's Grasp</t>
+          <t>Esika, God of the Tree // The Prismatic Bridge</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Gilded Assault Cart</t>
+          <t>Esika's Chariot</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Glacial Floodplain</t>
+          <t>"Fabulous Berserker"</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Gladewalker Ritualist</t>
+          <t>Faceless Haven</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Glimpse the Cosmos</t>
+          <t>Fire Giant's Fury</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Goldspan Dragon</t>
+          <t>Firja, Judge of Valor</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Goldspan Dragon</t>
+          <t>Forging the Tyrite Sword</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Hailstorm Valkyrie</t>
+          <t>"Forsworn Cleric"</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Halvar, God of Battle // Sword of the Realms</t>
+          <t>Frost Bite</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Halvar, God of Battle // Sword of the Realms</t>
+          <t>Frost Bite</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hengegate Pathway // Mistgate Pathway</t>
+          <t>"Gatorade™ Ice Punch"</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hengegate Pathway // Mistgate Pathway</t>
+          <t>Giant's Amulet</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Highland Forest</t>
+          <t>Giant's Grasp</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Ice Tunnel</t>
+          <t>Gilded Assault Cart</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Inga Rune-Eyes</t>
+          <t>Glacial Floodplain</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Inga Rune-Eyes</t>
+          <t>Gladewalker Ritualist</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Invasion of the Giants</t>
+          <t>Glimpse the Cosmos</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Kaya the Inexorable</t>
+          <t>Gods' Hall Guardian</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Kaya the Inexorable</t>
+          <t>Goldspan Dragon</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Koll, the Forgemaster</t>
+          <t>Goldspan Dragon</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Koll, the Forgemaster</t>
+          <t>Guardian Gladewalker</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Kolvori, God of Kinship // The Ringheart Crest</t>
+          <t>Hagi Mob</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Koma, Cosmos Serpent</t>
+          <t>Hailstorm Valkyrie</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Koma's Faithful</t>
+          <t>Halvar, God of Battle // Sword of the Realms</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Magda, Brazen Outlaw</t>
+          <t>Halvar, God of Battle // Sword of the Realms</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Magda, Brazen Outlaw</t>
+          <t>Hengegate Pathway // Mistgate Pathway</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Masked Vandal</t>
+          <t>Hengegate Pathway // Mistgate Pathway</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Masked Vandal</t>
+          <t>Highland Forest</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Niko Aris</t>
+          <t>Ice Tunnel</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Niko Aris</t>
+          <t>Inga Rune-Eyes</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Old-Growth Troll</t>
+          <t>Inga Rune-Eyes</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Old-Growth Troll</t>
+          <t>Invasion of the Giants</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Path to the World Tree</t>
+          <t>Kaya's Onslaught</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Pyre of Heroes</t>
+          <t>Kaya the Inexorable</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Pyre of Heroes</t>
+          <t>Kaya the Inexorable</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Rampage of the Valkyries</t>
+          <t>Koll, the Forgemaster</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ravenform</t>
+          <t>Koll, the Forgemaster</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Realmwalker</t>
+          <t>Kolvori, God of Kinship // The Ringheart Crest</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Realmwalker</t>
+          <t>Koma, Cosmos Serpent</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Realmwalker</t>
+          <t>Koma's Faithful</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Reflections of Littjara</t>
+          <t>Littjara Kinseekers</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Reflections of Littjara</t>
+          <t>Magda, Brazen Outlaw</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Renegade Reaper</t>
+          <t>Magda, Brazen Outlaw</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Rimewood Falls</t>
+          <t>Masked Vandal</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sarulf, Realm Eater</t>
+          <t>Masked Vandal</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sarulf, Realm Eater</t>
+          <t>Maskwood Nexus</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sarulf's Packmate</t>
+          <t>Moritte of the Frost</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Saw It Coming</t>
+          <t>Niko Aris</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sculptor of Winter</t>
+          <t>Niko Aris</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Seize the Spoils</t>
+          <t>Old-Growth Troll</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Showdown of the Skalds</t>
+          <t>Old-Growth Troll</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sigrid, God-Favored</t>
+          <t>Path to the World Tree</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sigrid, God-Favored</t>
+          <t>Pyre of Heroes</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Snow-Covered Forest</t>
+          <t>Pyre of Heroes</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Snow-Covered Forest</t>
+          <t>Quakebringer</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Snow-Covered Island</t>
+          <t>Rampage of the Valkyries</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Snow-Covered Island</t>
+          <t>Ravenform</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Snow-Covered Mountain</t>
+          <t>Realmwalker</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Snow-Covered Mountain</t>
+          <t>Realmwalker</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Snow-Covered Plains</t>
+          <t>Realmwalker</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Snow-Covered Plains</t>
+          <t>Reckless Crew</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Snow-Covered Swamp</t>
+          <t>Reflections of Littjara</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Snow-Covered Swamp</t>
+          <t>Reflections of Littjara</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Snowfield Sinkhole</t>
+          <t>Renegade Reaper</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Starnheim Aspirant</t>
+          <t>Replicating Ring</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sulfurous Mine</t>
+          <t>Rimewood Falls</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Surtland Elementalist</t>
+          <t>"Rise of the Marnhorde"</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Surtland Flinger</t>
+          <t>Sarulf, Realm Eater</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>The Trickster-God's Heist</t>
+          <t>Sarulf, Realm Eater</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>The World Tree</t>
+          <t>Sarulf's Packmate</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Thornmantle Striker</t>
+          <t>Saw It Coming</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Toski, Bearer of Secrets</t>
+          <t>Sculptor of Winter</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Toski, Bearer of Secrets</t>
+          <t>"Search for Glory"</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Tyvar Kell</t>
+          <t>Seize the Spoils</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
+          <t>Showdown of the Skalds</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
+          <t>Sigrid, God-Favored</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
+          <t>Sigrid, God-Favored</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Valkyrie Harbinger</t>
+          <t>"Skyrim Bear Attack"</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Varragoth, Bloodsky Sire</t>
+          <t>Snakeskin Veil</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Varragoth, Bloodsky Sire</t>
+          <t>Snow-Covered Forest</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Village Rites</t>
+          <t>Snow-Covered Forest</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Volatile Fjord</t>
+          <t>Snow-Covered Island</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Vorinclex, Monstrous Raider</t>
+          <t>Snow-Covered Island</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Vorinclex, Monstrous Raider</t>
+          <t>Snow-Covered Mountain</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>|*ornScs Du*hetm*serc.</t>
+          <t>Snow-Covered Mountain</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Warchanter Skald</t>
+          <t>Snow-Covered Plains</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Woodland Chasm</t>
+          <t>Snow-Covered Plains</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
+        <is>
+          <t>Snow-Covered Swamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Snow-Covered Swamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Snowfield Sinkhole</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>"Spirit Blade"</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Spirit of the Aldergard</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Starnheim Aspirant</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Sulfurous Mine</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Surtland Elementalist</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Surtland Flinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Tergrid, God of Fear // Tergrid's Lantern</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Tergrid, God of Fear // Tergrid's Lantern</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>"The Man Who Passes the Sentence Should Swing the Axe"</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>The Trickster-God's Heist</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>The World Tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Thornmantle Striker</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Toski, Bearer of Secrets</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Toski, Bearer of Secrets</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>"Trolls™️ Official Trailer"</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Tyvar Kell</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Undersea Invader</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>"Unshared Triumph"</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Valkyrie Harbinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Varragoth, Bloodsky Sire</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Varragoth, Bloodsky Sire</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Vega, the Watcher</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Village Rites</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Volatile Fjord</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Vorinclex, Monstrous Raider</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Vorinclex, Monstrous Raider</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>|lornScs DuJhetmiserc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Warchanter Skald</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Woodland Chasm</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>Youthful Valkyrie</t>
         </is>
